--- a/source/a_video_revenue_report_23_2025_09.xlsx
+++ b/source/a_video_revenue_report_23_2025_09.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -311,28 +311,38 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,12 +387,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,6 +416,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -406,65 +530,66 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.8203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -482,25 +607,25 @@
       <c r="J2" s="0" t="n">
         <v>0.077254</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">SUM(H2:J2)</f>
         <v>0.077254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -510,7 +635,7 @@
         <v>638</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>421.53281</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -518,25 +643,25 @@
       <c r="J3" s="0" t="n">
         <v>142.850866</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">SUM(H3:J3)</f>
-        <v>142.850866</v>
+        <v>564.383676</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -554,25 +679,25 @@
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">SUM(H4:J4)</f>
         <v>297.71544</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -590,25 +715,25 @@
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">SUM(H5:J5)</f>
         <v>226.806459</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -618,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0</v>
+        <v>318.00439</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -626,25 +751,25 @@
       <c r="J6" s="0" t="n">
         <v>119.986184</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">SUM(H6:J6)</f>
-        <v>119.986184</v>
+        <v>437.990574</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -662,25 +787,25 @@
       <c r="J7" s="0" t="n">
         <v>8.870786</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">SUM(H7:J7)</f>
         <v>8.870786</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -690,7 +815,7 @@
         <v>320</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>587.19905</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>24.589122</v>
@@ -698,25 +823,25 @@
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">SUM(H8:J8)</f>
-        <v>24.589122</v>
+        <v>611.788172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -734,25 +859,25 @@
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">SUM(H9:J9)</f>
         <v>0.612979</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -770,25 +895,25 @@
       <c r="J10" s="0" t="n">
         <v>0.600762</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">SUM(H10:J10)</f>
         <v>0.600762</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -806,25 +931,25 @@
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false">SUM(H11:J11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -834,7 +959,7 @@
         <v>44629</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>276.88541</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -842,25 +967,25 @@
       <c r="J12" s="0" t="n">
         <v>543.268343</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">SUM(H12:J12)</f>
-        <v>543.268343</v>
+        <v>820.153753</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -878,25 +1003,25 @@
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">SUM(H13:J13)</f>
         <v>892.973583</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -906,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>449.31072</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -914,25 +1039,25 @@
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">SUM(H14:J14)</f>
-        <v>0</v>
+        <v>449.31072</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -950,25 +1075,25 @@
       <c r="J15" s="0" t="n">
         <v>0.276692</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">SUM(H15:J15)</f>
         <v>0.276692</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -986,25 +1111,25 @@
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">SUM(H16:J16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1022,25 +1147,25 @@
       <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <f aca="false">SUM(H17:J17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -1050,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0</v>
+        <v>322.66745</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -1058,25 +1183,25 @@
       <c r="J18" s="0" t="n">
         <v>0.372551</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">SUM(H18:J18)</f>
-        <v>0.372551</v>
+        <v>323.040001</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1094,25 +1219,25 @@
       <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false">SUM(H19:J19)</f>
         <v>0.051293</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1130,25 +1255,25 @@
       <c r="J20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false">SUM(H20:J20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1158,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>115.90863</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -1166,25 +1291,25 @@
       <c r="J21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <f aca="false">SUM(H21:J21)</f>
-        <v>0</v>
+        <v>115.90863</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1202,25 +1327,25 @@
       <c r="J22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false">SUM(H22:J22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1230,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>503.77192</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1238,25 +1363,25 @@
       <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false">SUM(H23:J23)</f>
-        <v>0</v>
+        <v>503.77192</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -1274,25 +1399,25 @@
       <c r="J24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <f aca="false">SUM(H24:J24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="0" t="n">
@@ -1302,7 +1427,7 @@
         <v>304</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>253.44028</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>2.75722</v>
@@ -1310,25 +1435,25 @@
       <c r="J25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <f aca="false">SUM(H25:J25)</f>
-        <v>2.75722</v>
+        <v>256.1975</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -1346,25 +1471,25 @@
       <c r="J26" s="0" t="n">
         <v>3.704894</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <f aca="false">SUM(H26:J26)</f>
         <v>3.704894</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -1382,25 +1507,25 @@
       <c r="J27" s="0" t="n">
         <v>0.054461</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <f aca="false">SUM(H27:J27)</f>
         <v>0.054461</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="0" t="n">
@@ -1410,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>273.95778</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0.112764</v>
@@ -1418,25 +1543,25 @@
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <f aca="false">SUM(H28:J28)</f>
-        <v>0.112764</v>
+        <v>274.070544</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="0" t="n">
@@ -1454,25 +1579,25 @@
       <c r="J29" s="0" t="n">
         <v>0.045281</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <f aca="false">SUM(H29:J29)</f>
         <v>0.045281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="0" t="n">
@@ -1490,25 +1615,25 @@
       <c r="J30" s="0" t="n">
         <v>0.053393</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <f aca="false">SUM(H30:J30)</f>
         <v>0.053393</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -1526,25 +1651,25 @@
       <c r="J31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <f aca="false">SUM(H31:J31)</f>
         <v>0.051293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -1562,25 +1687,25 @@
       <c r="J32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <f aca="false">SUM(H32:J32)</f>
         <v>0.910365</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="0" t="n">
@@ -1598,25 +1723,25 @@
       <c r="J33" s="0" t="n">
         <v>0.354485</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <f aca="false">SUM(H33:J33)</f>
         <v>0.354485</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F34" s="0" t="n">
@@ -1634,25 +1759,25 @@
       <c r="J34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <f aca="false">SUM(H34:J34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="0" t="n">
@@ -1670,25 +1795,25 @@
       <c r="J35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <f aca="false">SUM(H35:J35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F36" s="0" t="n">
@@ -1706,25 +1831,25 @@
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <f aca="false">SUM(H36:J36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="0" t="n">
@@ -1742,25 +1867,25 @@
       <c r="J37" s="0" t="n">
         <v>77.326011</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <f aca="false">SUM(H37:J37)</f>
         <v>77.326011</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F38" s="0" t="n">
@@ -1778,25 +1903,25 @@
       <c r="J38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <f aca="false">SUM(H38:J38)</f>
         <v>147.598312</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="0" t="n">
@@ -1814,25 +1939,25 @@
       <c r="J39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <f aca="false">SUM(H39:J39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="0" t="n">
@@ -1850,25 +1975,25 @@
       <c r="J40" s="0" t="n">
         <v>5.709961</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="1" t="n">
         <f aca="false">SUM(H40:J40)</f>
         <v>5.709961</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F41" s="0" t="n">
@@ -1886,25 +2011,25 @@
       <c r="J41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="1" t="n">
         <f aca="false">SUM(H41:J41)</f>
         <v>0.506573</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="0" t="n">
@@ -1922,25 +2047,25 @@
       <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="1" t="n">
         <f aca="false">SUM(H42:J42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F43" s="0" t="n">
@@ -1958,25 +2083,25 @@
       <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="1" t="n">
         <f aca="false">SUM(H43:J43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F44" s="0" t="n">
@@ -1994,25 +2119,25 @@
       <c r="J44" s="0" t="n">
         <v>0.492044</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="1" t="n">
         <f aca="false">SUM(H44:J44)</f>
         <v>0.492044</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="0" t="n">
@@ -2030,25 +2155,25 @@
       <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <f aca="false">SUM(H45:J45)</f>
         <v>0.679995</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="0" t="n">
@@ -2066,25 +2191,25 @@
       <c r="J46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <f aca="false">SUM(H46:J46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F47" s="0" t="n">
@@ -2102,25 +2227,25 @@
       <c r="J47" s="0" t="n">
         <v>69.974722</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="1" t="n">
         <f aca="false">SUM(H47:J47)</f>
         <v>69.974722</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="0" t="n">
@@ -2138,25 +2263,25 @@
       <c r="J48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="1" t="n">
         <f aca="false">SUM(H48:J48)</f>
         <v>177.237021</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F49" s="0" t="n">
@@ -2174,25 +2299,25 @@
       <c r="J49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="1" t="n">
         <f aca="false">SUM(H49:J49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F50" s="0" t="n">
@@ -2210,25 +2335,25 @@
       <c r="J50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="1" t="n">
         <f aca="false">SUM(H50:J50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="0" t="n">
@@ -2246,25 +2371,25 @@
       <c r="J51" s="0" t="n">
         <v>0.099936</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="1" t="n">
         <f aca="false">SUM(H51:J51)</f>
         <v>0.099936</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="0" t="n">
@@ -2282,25 +2407,25 @@
       <c r="J52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <f aca="false">SUM(H52:J52)</f>
         <v>0.153879</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F53" s="0" t="n">
@@ -2318,25 +2443,25 @@
       <c r="J53" s="0" t="n">
         <v>0.786179</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <f aca="false">SUM(H53:J53)</f>
         <v>0.786179</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="0" t="n">
@@ -2354,25 +2479,25 @@
       <c r="J54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <f aca="false">SUM(H54:J54)</f>
         <v>0.507924</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F55" s="0" t="n">
@@ -2390,25 +2515,25 @@
       <c r="J55" s="0" t="n">
         <v>167.96423</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <f aca="false">SUM(H55:J55)</f>
         <v>167.96423</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="0" t="n">
@@ -2426,25 +2551,25 @@
       <c r="J56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <f aca="false">SUM(H56:J56)</f>
         <v>58.51793</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F57" s="0" t="n">
@@ -2462,25 +2587,25 @@
       <c r="J57" s="0" t="n">
         <v>1.071451</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="1" t="n">
         <f aca="false">SUM(H57:J57)</f>
         <v>1.071451</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="0" t="n">
@@ -2498,25 +2623,25 @@
       <c r="J58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <f aca="false">SUM(H58:J58)</f>
         <v>1.173254</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F59" s="0" t="n">
@@ -2534,25 +2659,25 @@
       <c r="J59" s="0" t="n">
         <v>0.022737</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="1" t="n">
         <f aca="false">SUM(H59:J59)</f>
         <v>0.022737</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F60" s="0" t="n">
@@ -2570,25 +2695,25 @@
       <c r="J60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <f aca="false">SUM(H60:J60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F61" s="0" t="n">
@@ -2598,7 +2723,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0</v>
+        <v>2.841233</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>0</v>
@@ -2606,25 +2731,25 @@
       <c r="J61" s="0" t="n">
         <v>5.941633</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="1" t="n">
         <f aca="false">SUM(H61:J61)</f>
-        <v>5.941633</v>
+        <v>8.782866</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="0" t="n">
@@ -2642,25 +2767,25 @@
       <c r="J62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="1" t="n">
         <f aca="false">SUM(H62:J62)</f>
         <v>0.335518</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="0" t="n">
@@ -2670,7 +2795,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0</v>
+        <v>4.650122</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>0.205172</v>
@@ -2678,25 +2803,25 @@
       <c r="J63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="1" t="n">
         <f aca="false">SUM(H63:J63)</f>
-        <v>0.205172</v>
+        <v>4.855294</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F64" s="0" t="n">
@@ -2714,25 +2839,25 @@
       <c r="J64" s="0" t="n">
         <v>0.159161</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="1" t="n">
         <f aca="false">SUM(H64:J64)</f>
         <v>0.159161</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F65" s="0" t="n">
@@ -2742,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0</v>
+        <v>1.296204</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>0</v>
@@ -2750,25 +2875,25 @@
       <c r="J65" s="0" t="n">
         <v>0.03076</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="1" t="n">
         <f aca="false">SUM(H65:J65)</f>
-        <v>0.03076</v>
+        <v>1.326964</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F66" s="0" t="n">
@@ -2778,7 +2903,7 @@
         <v>82</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0</v>
+        <v>3.772914</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>0</v>
@@ -2786,25 +2911,25 @@
       <c r="J66" s="0" t="n">
         <v>0.623546</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66" s="1" t="n">
         <f aca="false">SUM(H66:J66)</f>
-        <v>0.623546</v>
+        <v>4.39646</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F67" s="0" t="n">
@@ -2814,7 +2939,7 @@
         <v>82</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0</v>
+        <v>6.001085</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>0.953338</v>
@@ -2822,25 +2947,25 @@
       <c r="J67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="1" t="n">
         <f aca="false">SUM(H67:J67)</f>
-        <v>0.953338</v>
+        <v>6.954423</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="0" t="n">
@@ -2858,25 +2983,25 @@
       <c r="J68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68" s="1" t="n">
         <f aca="false">SUM(H68:J68)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F69" s="0" t="n">
@@ -2894,25 +3019,25 @@
       <c r="J69" s="0" t="n">
         <v>1.331602</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69" s="1" t="n">
         <f aca="false">SUM(H69:J69)</f>
         <v>1.331602</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F70" s="0" t="n">
@@ -2930,25 +3055,25 @@
       <c r="J70" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="1" t="n">
         <f aca="false">SUM(H70:J70)</f>
         <v>1.385231</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F71" s="0" t="n">
@@ -2966,25 +3091,25 @@
       <c r="J71" s="0" t="n">
         <v>1.095614</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="K71" s="1" t="n">
         <f aca="false">SUM(H71:J71)</f>
         <v>1.095614</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F72" s="0" t="n">
@@ -3002,25 +3127,25 @@
       <c r="J72" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="K72" s="1" t="n">
         <f aca="false">SUM(H72:J72)</f>
         <v>1.204546</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F73" s="0" t="n">
@@ -3038,25 +3163,25 @@
       <c r="J73" s="0" t="n">
         <v>0.045475</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="1" t="n">
         <f aca="false">SUM(H73:J73)</f>
         <v>0.045475</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F74" s="0" t="n">
@@ -3074,25 +3199,25 @@
       <c r="J74" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="1" t="n">
         <f aca="false">SUM(H74:J74)</f>
         <v>0.102586</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F75" s="0" t="n">
@@ -3110,25 +3235,25 @@
       <c r="J75" s="0" t="n">
         <v>1.841019</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75" s="1" t="n">
         <f aca="false">SUM(H75:J75)</f>
         <v>1.841019</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F76" s="0" t="n">
@@ -3146,25 +3271,25 @@
       <c r="J76" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K76" s="1" t="n">
         <f aca="false">SUM(H76:J76)</f>
         <v>0.731207</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="0" t="n">
@@ -3182,25 +3307,25 @@
       <c r="J77" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="K77" s="1" t="n">
         <f aca="false">SUM(H77:J77)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F78" s="0" t="n">
@@ -3218,25 +3343,25 @@
       <c r="J78" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78" s="1" t="n">
         <f aca="false">SUM(H78:J78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="0" t="n">
@@ -3254,25 +3379,25 @@
       <c r="J79" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="1" t="n">
         <f aca="false">SUM(H79:J79)</f>
         <v>1.244544</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F80" s="0" t="n">
@@ -3290,25 +3415,25 @@
       <c r="J80" s="0" t="n">
         <v>0.603193</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80" s="1" t="n">
         <f aca="false">SUM(H80:J80)</f>
         <v>0.603193</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F81" s="0" t="n">
@@ -3326,25 +3451,25 @@
       <c r="J81" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="1" t="n">
         <f aca="false">SUM(H81:J81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F82" s="0" t="n">
@@ -3362,25 +3487,25 @@
       <c r="J82" s="0" t="n">
         <v>0.045475</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="K82" s="1" t="n">
         <f aca="false">SUM(H82:J82)</f>
         <v>0.045475</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="0" t="n">
@@ -3398,25 +3523,25 @@
       <c r="J83" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="1" t="n">
         <f aca="false">SUM(H83:J83)</f>
         <v>0.051293</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F84" s="0" t="n">
@@ -3434,25 +3559,25 @@
       <c r="J84" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84" s="1" t="n">
         <f aca="false">SUM(H84:J84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="0" t="n">
@@ -3470,25 +3595,25 @@
       <c r="J85" s="0" t="n">
         <v>79.005203</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K85" s="1" t="n">
         <f aca="false">SUM(H85:J85)</f>
         <v>79.005203</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F86" s="0" t="n">
@@ -3506,25 +3631,25 @@
       <c r="J86" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86" s="1" t="n">
         <f aca="false">SUM(H86:J86)</f>
         <v>95.12984</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F87" s="0" t="n">
@@ -3542,25 +3667,25 @@
       <c r="J87" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K87" s="0" t="n">
+      <c r="K87" s="1" t="n">
         <f aca="false">SUM(H87:J87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F88" s="0" t="n">
@@ -3578,25 +3703,25 @@
       <c r="J88" s="0" t="n">
         <v>0.620389</v>
       </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88" s="1" t="n">
         <f aca="false">SUM(H88:J88)</f>
         <v>0.620389</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F89" s="0" t="n">
@@ -3614,25 +3739,25 @@
       <c r="J89" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="1" t="n">
         <f aca="false">SUM(H89:J89)</f>
         <v>0.833412</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F90" s="0" t="n">
@@ -3650,25 +3775,25 @@
       <c r="J90" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="1" t="n">
         <f aca="false">SUM(H90:J90)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F91" s="0" t="n">
@@ -3686,25 +3811,25 @@
       <c r="J91" s="0" t="n">
         <v>0.616509</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K91" s="1" t="n">
         <f aca="false">SUM(H91:J91)</f>
         <v>0.616509</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F92" s="0" t="n">
@@ -3722,25 +3847,25 @@
       <c r="J92" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92" s="1" t="n">
         <f aca="false">SUM(H92:J92)</f>
         <v>1.21507</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F93" s="0" t="n">
@@ -3758,25 +3883,25 @@
       <c r="J93" s="0" t="n">
         <v>0.113687</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93" s="1" t="n">
         <f aca="false">SUM(H93:J93)</f>
         <v>0.113687</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F94" s="0" t="n">
@@ -3794,25 +3919,25 @@
       <c r="J94" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="K94" s="1" t="n">
         <f aca="false">SUM(H94:J94)</f>
         <v>0.153879</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="0" t="n">
@@ -3830,25 +3955,25 @@
       <c r="J95" s="0" t="n">
         <v>0.032058</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95" s="1" t="n">
         <f aca="false">SUM(H95:J95)</f>
         <v>0.032058</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F96" s="0" t="n">
@@ -3866,25 +3991,25 @@
       <c r="J96" s="0" t="n">
         <v>62.334138</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="1" t="n">
         <f aca="false">SUM(H96:J96)</f>
         <v>62.334138</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F97" s="0" t="n">
@@ -3902,25 +4027,25 @@
       <c r="J97" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97" s="1" t="n">
         <f aca="false">SUM(H97:J97)</f>
         <v>79.531191</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F98" s="0" t="n">
@@ -3938,25 +4063,25 @@
       <c r="J98" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="K98" s="1" t="n">
         <f aca="false">SUM(H98:J98)</f>
         <v>1.390477</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F99" s="0" t="n">
@@ -3974,25 +4099,25 @@
       <c r="J99" s="0" t="n">
         <v>1.768474</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99" s="1" t="n">
         <f aca="false">SUM(H99:J99)</f>
         <v>1.768474</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F100" s="0" t="n">
@@ -4010,25 +4135,25 @@
       <c r="J100" s="0" t="n">
         <v>55.283463</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100" s="1" t="n">
         <f aca="false">SUM(H100:J100)</f>
         <v>55.283463</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F101" s="0" t="n">
@@ -4046,25 +4171,25 @@
       <c r="J101" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101" s="1" t="n">
         <f aca="false">SUM(H101:J101)</f>
         <v>87.504767</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F102" s="0" t="n">
@@ -4082,25 +4207,25 @@
       <c r="J102" s="0" t="n">
         <v>0.036374</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="K102" s="1" t="n">
         <f aca="false">SUM(H102:J102)</f>
         <v>0.036374</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F103" s="0" t="n">
@@ -4118,25 +4243,25 @@
       <c r="J103" s="0" t="n">
         <v>0.861535</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103" s="1" t="n">
         <f aca="false">SUM(H103:J103)</f>
         <v>0.861535</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F104" s="0" t="n">
@@ -4154,25 +4279,25 @@
       <c r="J104" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104" s="1" t="n">
         <f aca="false">SUM(H104:J104)</f>
         <v>1.086075</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F105" s="0" t="n">
@@ -4190,25 +4315,25 @@
       <c r="J105" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="K105" s="1" t="n">
         <f aca="false">SUM(H105:J105)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F106" s="0" t="n">
@@ -4226,25 +4351,25 @@
       <c r="J106" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="K106" s="1" t="n">
         <f aca="false">SUM(H106:J106)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F107" s="0" t="n">
@@ -4262,25 +4387,25 @@
       <c r="J107" s="0" t="n">
         <v>0.343225</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107" s="1" t="n">
         <f aca="false">SUM(H107:J107)</f>
         <v>0.343225</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F108" s="0" t="n">
@@ -4298,25 +4423,25 @@
       <c r="J108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K108" s="0" t="n">
+      <c r="K108" s="1" t="n">
         <f aca="false">SUM(H108:J108)</f>
         <v>0.217442</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F109" s="0" t="n">
@@ -4334,25 +4459,25 @@
       <c r="J109" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109" s="1" t="n">
         <f aca="false">SUM(H109:J109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F110" s="0" t="n">
@@ -4370,25 +4495,25 @@
       <c r="J110" s="0" t="n">
         <v>0.134793</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110" s="1" t="n">
         <f aca="false">SUM(H110:J110)</f>
         <v>0.134793</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F111" s="0" t="n">
@@ -4406,25 +4531,25 @@
       <c r="J111" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="1" t="n">
         <f aca="false">SUM(H111:J111)</f>
         <v>0.120734</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F112" s="0" t="n">
@@ -4442,25 +4567,25 @@
       <c r="J112" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="1" t="n">
         <f aca="false">SUM(H112:J112)</f>
         <v>0.246708</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F113" s="0" t="n">
@@ -4478,25 +4603,25 @@
       <c r="J113" s="0" t="n">
         <v>5.889032</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113" s="1" t="n">
         <f aca="false">SUM(H113:J113)</f>
         <v>5.889032</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F114" s="0" t="n">
@@ -4514,25 +4639,25 @@
       <c r="J114" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114" s="1" t="n">
         <f aca="false">SUM(H114:J114)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F115" s="0" t="n">
@@ -4550,25 +4675,25 @@
       <c r="J115" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115" s="1" t="n">
         <f aca="false">SUM(H115:J115)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F116" s="0" t="n">
@@ -4586,25 +4711,25 @@
       <c r="J116" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116" s="1" t="n">
         <f aca="false">SUM(H116:J116)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F117" s="0" t="n">
@@ -4622,25 +4747,25 @@
       <c r="J117" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K117" s="0" t="n">
+      <c r="K117" s="1" t="n">
         <f aca="false">SUM(H117:J117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F118" s="0" t="n">
@@ -4658,25 +4783,25 @@
       <c r="J118" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K118" s="0" t="n">
+      <c r="K118" s="1" t="n">
         <f aca="false">SUM(H118:J118)</f>
         <v>20625.519089</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F119" s="0" t="n">
@@ -4694,25 +4819,25 @@
       <c r="J119" s="0" t="n">
         <v>15576.653671</v>
       </c>
-      <c r="K119" s="0" t="n">
+      <c r="K119" s="1" t="n">
         <f aca="false">SUM(H119:J119)</f>
         <v>15576.653671</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F120" s="0" t="n">
@@ -4730,511 +4855,511 @@
       <c r="J120" s="0" t="n">
         <v>0.02655</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="K120" s="1" t="n">
         <f aca="false">SUM(H120:J120)</f>
         <v>0.02655</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="A121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" s="0" t="n">
+      <c r="F121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1" t="n">
         <f aca="false">SUM(H121:J121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F122" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" s="0" t="n">
+      <c r="F122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1" t="n">
         <f aca="false">SUM(H122:J122)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="A123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" s="0" t="n">
+      <c r="F123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1" t="n">
         <f aca="false">SUM(H123:J123)</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="A124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F124" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" s="0" t="n">
+      <c r="F124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1" t="n">
         <f aca="false">SUM(H124:J124)</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F125" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" s="0" t="n">
+      <c r="F125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1" t="n">
         <f aca="false">SUM(H125:J125)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F126" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" s="0" t="n">
+      <c r="F126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1" t="n">
         <f aca="false">SUM(H126:J126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="A127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F127" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" s="0" t="n">
+      <c r="F127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1" t="n">
         <f aca="false">SUM(H127:J127)</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F128" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" s="0" t="n">
+      <c r="F128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1" t="n">
         <f aca="false">SUM(H128:J128)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" s="0" t="n">
+      <c r="F129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1" t="n">
         <f aca="false">SUM(H129:J129)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="A130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F130" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" s="0" t="n">
+      <c r="F130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1" t="n">
         <f aca="false">SUM(H130:J130)</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="A131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F131" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" s="0" t="n">
+      <c r="F131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1" t="n">
         <f aca="false">SUM(H131:J131)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="A132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F132" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" s="0" t="n">
+      <c r="F132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="n">
         <f aca="false">SUM(H132:J132)</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="A133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F133" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" s="0" t="n">
+      <c r="F133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1" t="n">
         <f aca="false">SUM(H133:J133)</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="A134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F134" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" s="0" t="n">
+      <c r="F134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1" t="n">
         <f aca="false">SUM(H134:J134)</f>
         <v>0</v>
       </c>

--- a/source/a_video_revenue_report_23_2025_09.xlsx
+++ b/source/a_video_revenue_report_23_2025_09.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="95">
   <si>
     <t xml:space="preserve">Video ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">4URm5Th-HUGTlqjR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5y590rgaiaYJrtER</t>
   </si>
   <si>
     <t xml:space="preserve">5juaej</t>
@@ -323,19 +326,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -400,8 +400,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -416,112 +416,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -530,14 +424,14 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.8203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="10.49"/>
   </cols>
   <sheetData>
@@ -576,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -592,19 +486,19 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <v>0.077254</v>
       </c>
       <c r="K2" s="1" t="n">
@@ -612,7 +506,7 @@
         <v>0.077254</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -628,19 +522,19 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>1696</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>638</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>421.53281</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
         <v>142.850866</v>
       </c>
       <c r="K3" s="1" t="n">
@@ -648,9 +542,9 @@
         <v>564.383676</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -664,19 +558,19 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1696</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>638</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="F4" s="3" t="n">
+        <v>2599</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>869</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>297.71544</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
@@ -684,12 +578,12 @@
         <v>297.71544</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -700,19 +594,19 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>226.806459</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="n">
@@ -720,12 +614,12 @@
         <v>226.806459</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -736,19 +630,19 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>318.00439</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>119.986184</v>
       </c>
       <c r="K6" s="1" t="n">
@@ -756,12 +650,12 @@
         <v>437.990574</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -772,19 +666,19 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>4094</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>320</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="F7" s="3" t="n">
+        <v>6544</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>872</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
         <v>8.870786</v>
       </c>
       <c r="K7" s="1" t="n">
@@ -792,12 +686,12 @@
         <v>8.870786</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -808,19 +702,19 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>4094</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>320</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>587.19905</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>24.589122</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="n">
@@ -828,12 +722,12 @@
         <v>611.788172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -844,19 +738,19 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="F9" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>0.612979</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
@@ -864,12 +758,12 @@
         <v>0.612979</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -880,19 +774,19 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <v>0.600762</v>
       </c>
       <c r="K10" s="1" t="n">
@@ -900,12 +794,12 @@
         <v>0.600762</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -916,19 +810,19 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
@@ -936,12 +830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -952,19 +846,19 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>253732</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>44629</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="F12" s="3" t="n">
+        <v>356687</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>69877</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>276.88541</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <v>543.268343</v>
       </c>
       <c r="K12" s="1" t="n">
@@ -972,12 +866,12 @@
         <v>820.153753</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -988,19 +882,19 @@
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>253732</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>44629</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>892.973583</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
@@ -1008,12 +902,12 @@
         <v>892.973583</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1024,19 +918,19 @@
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="F14" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>449.31072</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
@@ -1044,12 +938,12 @@
         <v>449.31072</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1060,19 +954,19 @@
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
         <v>0.276692</v>
       </c>
       <c r="K15" s="1" t="n">
@@ -1080,12 +974,12 @@
         <v>0.276692</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1096,19 +990,19 @@
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
@@ -1116,12 +1010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -1132,19 +1026,19 @@
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="n">
@@ -1152,12 +1046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1168,19 +1062,19 @@
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="3" t="n">
         <v>322.66745</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
         <v>0.372551</v>
       </c>
       <c r="K18" s="1" t="n">
@@ -1188,12 +1082,12 @@
         <v>323.040001</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1204,19 +1098,19 @@
       <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>0.051293</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="n">
@@ -1224,12 +1118,12 @@
         <v>0.051293</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -1240,19 +1134,19 @@
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
@@ -1260,12 +1154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1276,19 +1170,19 @@
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
         <v>115.90863</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="1" t="n">
@@ -1296,12 +1190,12 @@
         <v>115.90863</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1312,19 +1206,19 @@
       <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
@@ -1332,12 +1226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1348,19 +1242,19 @@
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
         <v>503.77192</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="1" t="n">
@@ -1368,12 +1262,12 @@
         <v>503.77192</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -1384,19 +1278,19 @@
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="F24" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="1" t="n">
@@ -1404,12 +1298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -1420,19 +1314,19 @@
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="3" t="n">
         <v>865</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="3" t="n">
         <v>253.44028</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>2.75722</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1440,12 +1334,12 @@
         <v>256.1975</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -1456,19 +1350,19 @@
       <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>865</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>304</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="F26" s="3" t="n">
+        <v>988</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="n">
         <v>3.704894</v>
       </c>
       <c r="K26" s="1" t="n">
@@ -1476,12 +1370,12 @@
         <v>3.704894</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -1492,19 +1386,19 @@
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="n">
         <v>0.054461</v>
       </c>
       <c r="K27" s="1" t="n">
@@ -1512,12 +1406,12 @@
         <v>0.054461</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
@@ -1528,19 +1422,19 @@
       <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="3" t="n">
         <v>273.95778</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>0.112764</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="1" t="n">
@@ -1548,35 +1442,35 @@
         <v>274.070544</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="G29" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="n">
         <v>0.045281</v>
       </c>
       <c r="K29" s="1" t="n">
@@ -1584,35 +1478,35 @@
         <v>0.045281</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="n">
         <v>0.053393</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1620,35 +1514,35 @@
         <v>0.053393</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="F31" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
         <v>0.051293</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K31" s="1" t="n">
@@ -1656,35 +1550,35 @@
         <v>0.051293</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>144</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
         <v>0.910365</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K32" s="1" t="n">
@@ -1692,35 +1586,35 @@
         <v>0.910365</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F33" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
+      <c r="H33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="n">
         <v>0.354485</v>
       </c>
       <c r="K33" s="1" t="n">
@@ -1728,35 +1622,35 @@
         <v>0.354485</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="1" t="n">
@@ -1764,35 +1658,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F35" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="1" t="n">
@@ -1800,35 +1694,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F36" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0" t="n">
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="1" t="n">
@@ -1836,35 +1730,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>210469</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>6719</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>264489</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>8777</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="n">
         <v>77.326011</v>
       </c>
       <c r="K37" s="1" t="n">
@@ -1872,35 +1766,35 @@
         <v>77.326011</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F38" s="3" t="n">
         <v>210469</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="3" t="n">
         <v>6719</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
+      <c r="H38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="n">
         <v>147.598312</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K38" s="1" t="n">
@@ -1908,35 +1802,35 @@
         <v>147.598312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F39" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0" t="n">
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="n">
@@ -1944,35 +1838,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="n">
         <v>5.709961</v>
       </c>
       <c r="K40" s="1" t="n">
@@ -1980,35 +1874,35 @@
         <v>5.709961</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F41" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
         <v>0.506573</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="n">
@@ -2016,35 +1910,35 @@
         <v>0.506573</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F42" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0" t="n">
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="n">
@@ -2052,35 +1946,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="1" t="n">
@@ -2088,35 +1982,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>254</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>299</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="n">
         <v>0.492044</v>
       </c>
       <c r="K44" s="1" t="n">
@@ -2124,35 +2018,35 @@
         <v>0.492044</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F45" s="3" t="n">
         <v>254</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="0" t="n">
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
         <v>0.679995</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="1" t="n">
@@ -2160,35 +2054,35 @@
         <v>0.679995</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F46" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="0" t="n">
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="1" t="n">
@@ -2196,35 +2090,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>24873</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>3751</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>33344</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>6850</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="n">
         <v>69.974722</v>
       </c>
       <c r="K47" s="1" t="n">
@@ -2232,35 +2126,35 @@
         <v>69.974722</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F48" s="3" t="n">
         <v>24873</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="3" t="n">
         <v>3751</v>
       </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
         <v>177.237021</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="n">
@@ -2268,35 +2162,35 @@
         <v>177.237021</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="0" t="n">
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K49" s="1" t="n">
@@ -2304,35 +2198,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="0" t="n">
+      <c r="G50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K50" s="1" t="n">
@@ -2340,35 +2234,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F51" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="0" t="n">
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="n">
         <v>0.099936</v>
       </c>
       <c r="K51" s="1" t="n">
@@ -2376,35 +2270,35 @@
         <v>0.099936</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
         <v>0.153879</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="1" t="n">
@@ -2412,35 +2306,35 @@
         <v>0.153879</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>354</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="n">
         <v>0.786179</v>
       </c>
       <c r="K53" s="1" t="n">
@@ -2448,35 +2342,35 @@
         <v>0.786179</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F54" s="3" t="n">
         <v>239</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="H54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="0" t="n">
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
         <v>0.507924</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="1" t="n">
@@ -2484,35 +2378,35 @@
         <v>0.507924</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>69044</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>14968</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>68777</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>10320</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="n">
         <v>167.96423</v>
       </c>
       <c r="K55" s="1" t="n">
@@ -2520,35 +2414,35 @@
         <v>167.96423</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F56" s="3" t="n">
         <v>69044</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="3" t="n">
         <v>14968</v>
       </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="0" t="n">
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
         <v>58.51793</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K56" s="1" t="n">
@@ -2556,35 +2450,35 @@
         <v>58.51793</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>542</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>988</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="n">
         <v>1.071451</v>
       </c>
       <c r="K57" s="1" t="n">
@@ -2592,35 +2486,35 @@
         <v>1.071451</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F58" s="3" t="n">
         <v>542</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="0" t="n">
+      <c r="H58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="n">
         <v>1.173254</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="n">
@@ -2628,35 +2522,35 @@
         <v>1.173254</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F59" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="0" t="n">
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="n">
         <v>0.022737</v>
       </c>
       <c r="K59" s="1" t="n">
@@ -2664,35 +2558,35 @@
         <v>0.022737</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F60" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="0" t="n">
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="1" t="n">
@@ -2700,35 +2594,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H61" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H61" s="3" t="n">
         <v>2.841233</v>
       </c>
-      <c r="I61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="0" t="n">
+      <c r="I61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="n">
         <v>5.941633</v>
       </c>
       <c r="K61" s="1" t="n">
@@ -2736,35 +2630,35 @@
         <v>8.782866</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F62" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="H62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="0" t="n">
+      <c r="H62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="n">
         <v>0.335518</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K62" s="1" t="n">
@@ -2772,35 +2666,35 @@
         <v>0.335518</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H63" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H63" s="3" t="n">
         <v>4.650122</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="3" t="n">
         <v>0.205172</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="n">
@@ -2808,35 +2702,35 @@
         <v>4.855294</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F64" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="0" t="n">
+      <c r="H64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="n">
         <v>0.159161</v>
       </c>
       <c r="K64" s="1" t="n">
@@ -2844,35 +2738,35 @@
         <v>0.159161</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F65" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="3" t="n">
         <v>1.296204</v>
       </c>
-      <c r="I65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" s="0" t="n">
+      <c r="I65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="n">
         <v>0.03076</v>
       </c>
       <c r="K65" s="1" t="n">
@@ -2880,35 +2774,35 @@
         <v>1.326964</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>797</v>
+      </c>
+      <c r="G66" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>567</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="3" t="n">
         <v>3.772914</v>
       </c>
-      <c r="I66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="0" t="n">
+      <c r="I66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="n">
         <v>0.623546</v>
       </c>
       <c r="K66" s="1" t="n">
@@ -2916,35 +2810,35 @@
         <v>4.39646</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F67" s="3" t="n">
         <v>567</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="3" t="n">
         <v>6.001085</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="3" t="n">
         <v>0.953338</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K67" s="1" t="n">
@@ -2952,35 +2846,35 @@
         <v>6.954423</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F68" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="0" t="n">
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K68" s="1" t="n">
@@ -2988,35 +2882,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>633</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>697</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="n">
         <v>1.331602</v>
       </c>
       <c r="K69" s="1" t="n">
@@ -3024,35 +2918,35 @@
         <v>1.331602</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>633</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="0" t="n">
+      <c r="H70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="n">
         <v>1.385231</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K70" s="1" t="n">
@@ -3060,35 +2954,35 @@
         <v>1.385231</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>294</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="n">
         <v>1.095614</v>
       </c>
       <c r="K71" s="1" t="n">
@@ -3096,35 +2990,35 @@
         <v>1.095614</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F72" s="3" t="n">
         <v>294</v>
       </c>
-      <c r="G72" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" s="0" t="n">
+      <c r="G72" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="n">
         <v>1.204546</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K72" s="1" t="n">
@@ -3132,35 +3026,35 @@
         <v>1.204546</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F73" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="0" t="n">
+      <c r="H73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="n">
         <v>0.045475</v>
       </c>
       <c r="K73" s="1" t="n">
@@ -3168,35 +3062,35 @@
         <v>0.045475</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G74" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G74" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="0" t="n">
+      <c r="H74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="n">
         <v>0.102586</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K74" s="1" t="n">
@@ -3204,35 +3098,35 @@
         <v>0.102586</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>1550</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="0" t="n">
+      <c r="F75" s="3" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>450</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="n">
         <v>1.841019</v>
       </c>
       <c r="K75" s="1" t="n">
@@ -3240,35 +3134,35 @@
         <v>1.841019</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F76" s="3" t="n">
         <v>1550</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="0" t="n">
+      <c r="H76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="n">
         <v>0.731207</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="J76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K76" s="1" t="n">
@@ -3276,35 +3170,35 @@
         <v>0.731207</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F77" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="0" t="n">
+      <c r="G77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="1" t="n">
@@ -3312,35 +3206,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="1" t="n">
@@ -3348,35 +3242,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="n">
         <v>1.244544</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="J79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K79" s="1" t="n">
@@ -3384,35 +3278,35 @@
         <v>1.244544</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F80" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="H80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="0" t="n">
+      <c r="H80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="n">
         <v>0.603193</v>
       </c>
       <c r="K80" s="1" t="n">
@@ -3420,35 +3314,35 @@
         <v>0.603193</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F81" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" s="0" t="n">
+      <c r="G81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K81" s="1" t="n">
@@ -3456,35 +3350,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="n">
         <v>0.045475</v>
       </c>
       <c r="K82" s="1" t="n">
@@ -3492,35 +3386,35 @@
         <v>0.045475</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="0" t="n">
+      <c r="H83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="n">
         <v>0.051293</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="1" t="n">
@@ -3528,35 +3422,35 @@
         <v>0.051293</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F84" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="0" t="n">
+      <c r="G84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="1" t="n">
@@ -3564,35 +3458,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>12456</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>6376</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>13131</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>4423</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3" t="n">
         <v>79.005203</v>
       </c>
       <c r="K85" s="1" t="n">
@@ -3600,35 +3494,35 @@
         <v>79.005203</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F86" s="3" t="n">
         <v>12456</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="3" t="n">
         <v>6376</v>
       </c>
-      <c r="H86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="0" t="n">
+      <c r="H86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3" t="n">
         <v>95.12984</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="J86" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K86" s="1" t="n">
@@ -3636,35 +3530,35 @@
         <v>95.12984</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F87" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="0" t="n">
+      <c r="G87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K87" s="1" t="n">
@@ -3672,35 +3566,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="G88" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3" t="n">
         <v>0.620389</v>
       </c>
       <c r="K88" s="1" t="n">
@@ -3708,35 +3602,35 @@
         <v>0.620389</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F89" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="H89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" s="0" t="n">
+      <c r="H89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3" t="n">
         <v>0.833412</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="J89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K89" s="1" t="n">
@@ -3744,35 +3638,35 @@
         <v>0.833412</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F90" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="0" t="n">
+      <c r="H90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K90" s="1" t="n">
@@ -3780,35 +3674,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>269</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="n">
         <v>0.616509</v>
       </c>
       <c r="K91" s="1" t="n">
@@ -3816,35 +3710,35 @@
         <v>0.616509</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F92" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F92" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" s="0" t="n">
+      <c r="H92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3" t="n">
         <v>1.21507</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="J92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K92" s="1" t="n">
@@ -3852,35 +3746,35 @@
         <v>1.21507</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3" t="n">
         <v>0.113687</v>
       </c>
       <c r="K93" s="1" t="n">
@@ -3888,35 +3782,35 @@
         <v>0.113687</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F94" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F94" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="H94" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" s="0" t="n">
+      <c r="H94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="n">
         <v>0.153879</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="J94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="1" t="n">
@@ -3924,35 +3818,35 @@
         <v>0.153879</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F95" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="0" t="n">
+      <c r="H95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3" t="n">
         <v>0.032058</v>
       </c>
       <c r="K95" s="1" t="n">
@@ -3960,35 +3854,35 @@
         <v>0.032058</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>50122</v>
-      </c>
-      <c r="G96" s="0" t="n">
-        <v>4522</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>10010</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>1543</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3" t="n">
         <v>62.334138</v>
       </c>
       <c r="K96" s="1" t="n">
@@ -3996,35 +3890,35 @@
         <v>62.334138</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F97" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F97" s="3" t="n">
         <v>50122</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="3" t="n">
         <v>4522</v>
       </c>
-      <c r="H97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" s="0" t="n">
+      <c r="H97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3" t="n">
         <v>79.531191</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="J97" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K97" s="1" t="n">
@@ -4032,35 +3926,35 @@
         <v>79.531191</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="G98" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>354</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3" t="n">
         <v>1.390477</v>
       </c>
-      <c r="J98" s="0" t="n">
+      <c r="J98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K98" s="1" t="n">
@@ -4068,35 +3962,35 @@
         <v>1.390477</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F99" s="3" t="n">
         <v>349</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="3" t="n">
         <v>127</v>
       </c>
-      <c r="H99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="0" t="n">
+      <c r="H99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="n">
         <v>1.768474</v>
       </c>
       <c r="K99" s="1" t="n">
@@ -4104,35 +3998,35 @@
         <v>1.768474</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>77812</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>3646</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>55446</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>2113</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="n">
         <v>55.283463</v>
       </c>
       <c r="K100" s="1" t="n">
@@ -4140,35 +4034,35 @@
         <v>55.283463</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F101" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F101" s="3" t="n">
         <v>77812</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="3" t="n">
         <v>3646</v>
       </c>
-      <c r="H101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" s="0" t="n">
+      <c r="H101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="n">
         <v>87.504767</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K101" s="1" t="n">
@@ -4176,35 +4070,35 @@
         <v>87.504767</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F102" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="0" t="n">
+      <c r="H102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="n">
         <v>0.036374</v>
       </c>
       <c r="K102" s="1" t="n">
@@ -4212,35 +4106,35 @@
         <v>0.036374</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>2258</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3" t="n">
         <v>0.861535</v>
       </c>
       <c r="K103" s="1" t="n">
@@ -4248,35 +4142,35 @@
         <v>0.861535</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F104" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F104" s="3" t="n">
         <v>2258</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="H104" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="0" t="n">
+      <c r="H104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3" t="n">
         <v>1.086075</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="J104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K104" s="1" t="n">
@@ -4284,35 +4178,35 @@
         <v>1.086075</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="G105" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G105" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="0" t="n">
+      <c r="H105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K105" s="1" t="n">
@@ -4320,35 +4214,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H106" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="0" t="n">
+      <c r="H106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K106" s="1" t="n">
@@ -4356,35 +4250,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>363</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>344</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3" t="n">
         <v>0.343225</v>
       </c>
       <c r="K107" s="1" t="n">
@@ -4392,35 +4286,35 @@
         <v>0.343225</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F108" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F108" s="3" t="n">
         <v>363</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="H108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" s="0" t="n">
+      <c r="H108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3" t="n">
         <v>0.217442</v>
       </c>
-      <c r="J108" s="0" t="n">
+      <c r="J108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K108" s="1" t="n">
@@ -4428,35 +4322,35 @@
         <v>0.217442</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F109" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F109" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" s="0" t="n">
+      <c r="G109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="1" t="n">
@@ -4464,35 +4358,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>1095</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>547</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3" t="n">
         <v>0.134793</v>
       </c>
       <c r="K110" s="1" t="n">
@@ -4500,35 +4394,35 @@
         <v>0.134793</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F111" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F111" s="3" t="n">
         <v>1095</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="0" t="n">
+      <c r="H111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3" t="n">
         <v>0.120734</v>
       </c>
-      <c r="J111" s="0" t="n">
+      <c r="J111" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K111" s="1" t="n">
@@ -4536,35 +4430,35 @@
         <v>0.120734</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>3270</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>795</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>3977</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>876</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3" t="n">
         <v>0.246708</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K112" s="1" t="n">
@@ -4572,35 +4466,35 @@
         <v>0.246708</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F113" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F113" s="3" t="n">
         <v>3270</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113" s="3" t="n">
         <v>795</v>
       </c>
-      <c r="H113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="0" t="n">
+      <c r="H113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3" t="n">
         <v>5.889032</v>
       </c>
       <c r="K113" s="1" t="n">
@@ -4608,35 +4502,35 @@
         <v>5.889032</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F114" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F114" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" s="0" t="n">
+      <c r="H114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K114" s="1" t="n">
@@ -4644,35 +4538,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F115" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F115" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" s="0" t="n">
+      <c r="G115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K115" s="1" t="n">
@@ -4680,35 +4574,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F116" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" s="0" t="n">
+      <c r="H116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K116" s="1" t="n">
@@ -4716,35 +4610,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K117" s="1" t="n">
@@ -4752,107 +4646,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F118" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F118" s="3" t="n">
         <v>4372776</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118" s="3" t="n">
         <v>879523</v>
       </c>
-      <c r="H118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" s="0" t="n">
-        <v>20625.519089</v>
-      </c>
-      <c r="J118" s="0" t="n">
+      <c r="H118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>20625.51909</v>
+      </c>
+      <c r="J118" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K118" s="1" t="n">
         <f aca="false">SUM(H118:J118)</f>
-        <v>20625.519089</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20625.51909</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119" s="0" t="n">
-        <v>4372776</v>
-      </c>
-      <c r="G119" s="0" t="n">
-        <v>879523</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" s="0" t="n">
-        <v>15576.653671</v>
+        <v>93</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>468779</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>50043</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>15576.65367</v>
       </c>
       <c r="K119" s="1" t="n">
         <f aca="false">SUM(H119:J119)</f>
-        <v>15576.653671</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15576.65367</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="26.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F120" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F120" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" s="0" t="n">
+      <c r="H120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3" t="n">
         <v>0.02655</v>
       </c>
       <c r="K120" s="1" t="n">
@@ -4862,10 +4756,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
@@ -4877,10 +4771,10 @@
         <v>15</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>0</v>
@@ -4898,25 +4792,25 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H122" s="1" t="n">
         <v>0</v>
@@ -4934,25 +4828,25 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>0</v>
@@ -4970,25 +4864,25 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H124" s="1" t="n">
         <v>0</v>
@@ -5006,25 +4900,25 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>0</v>
@@ -5042,25 +4936,25 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H126" s="1" t="n">
         <v>0</v>
@@ -5078,25 +4972,25 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H127" s="1" t="n">
         <v>0</v>
@@ -5114,25 +5008,25 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H128" s="1" t="n">
         <v>0</v>
@@ -5150,25 +5044,25 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H129" s="1" t="n">
         <v>0</v>
@@ -5186,25 +5080,25 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H130" s="1" t="n">
         <v>0</v>
@@ -5222,25 +5116,25 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H131" s="1" t="n">
         <v>0</v>
@@ -5258,25 +5152,25 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H132" s="1" t="n">
         <v>0</v>
@@ -5294,25 +5188,25 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H133" s="1" t="n">
         <v>0</v>
@@ -5330,25 +5224,25 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H134" s="1" t="n">
         <v>0</v>
